--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3611</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kemar Andre Jamal Roach</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/08/2008</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2861</t>
+          <t>2861</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2864</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>28/07/2009</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3024</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3031</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -856,7 +918,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3097</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1062,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/03/2010</t>
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1161,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>12/03/2010</t>
@@ -1108,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1208,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>31/01/2011</t>
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3227</t>
+          <t>3227</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>28/02/2011</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1512,7 +1569,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1609,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -1560,7 +1616,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1612,7 +1668,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1664,7 +1720,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1760,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>02/05/2011</t>
@@ -1712,7 +1767,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1764,7 +1819,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1816,7 +1871,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1911,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>16/06/2011</t>
@@ -1864,7 +1918,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1904,7 +1958,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -1912,7 +1965,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1952,7 +2005,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -1960,7 +2012,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2012,7 +2064,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2064,7 +2116,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2116,7 +2168,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2156,7 +2208,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>05/12/2011</t>
@@ -2164,7 +2215,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2320,7 +2371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2360,7 +2411,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -2368,7 +2418,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2420,7 +2470,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2460,7 +2510,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>23/03/2012</t>
@@ -2468,7 +2517,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2520,7 +2569,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2572,7 +2621,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2624,7 +2673,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2676,7 +2725,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2728,7 +2777,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2780,7 +2829,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2832,7 +2881,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2884,7 +2933,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2924,7 +2973,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>22/02/2013</t>
@@ -2932,7 +2980,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2972,7 +3020,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -2980,7 +3027,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3020,7 +3067,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>26/02/2013</t>
@@ -3028,7 +3074,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3080,7 +3126,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3132,7 +3178,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3172,7 +3218,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>28/06/2013</t>
@@ -3180,7 +3225,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3232,7 +3277,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3284,7 +3329,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3336,7 +3381,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3388,7 +3433,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3440,7 +3485,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3492,7 +3537,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3544,7 +3589,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3584,7 +3629,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>20/08/2014</t>
@@ -3592,7 +3636,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3632,7 +3676,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>22/08/2014</t>
@@ -3640,7 +3683,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3680,7 +3723,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -3688,7 +3730,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3728,7 +3770,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -3736,7 +3777,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3788,7 +3829,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3828,7 +3869,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -3836,7 +3876,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3876,7 +3916,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -3884,7 +3923,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3936,7 +3975,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3976,7 +4015,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>19/03/2018</t>
@@ -3984,7 +4022,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4036,7 +4074,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4088,7 +4126,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4140,7 +4178,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4192,7 +4230,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4244,7 +4282,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4296,7 +4334,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4348,7 +4386,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4400,7 +4438,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4440,7 +4478,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -4448,7 +4485,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4500,7 +4537,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4540,7 +4577,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -4548,7 +4584,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4600,7 +4636,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4640,7 +4676,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4648,7 +4683,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4700,7 +4735,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4740,7 +4775,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -4748,7 +4782,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4788,7 +4822,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -4796,7 +4829,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4848,7 +4881,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4900,7 +4933,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4940,7 +4973,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -4948,7 +4980,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4988,7 +5020,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -4996,7 +5027,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4359</t>
+          <t>4359</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5048,7 +5079,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5088,7 +5119,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -5096,7 +5126,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5148,7 +5178,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5200,7 +5230,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5252,7 +5282,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5291,7 +5321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5313,7 +5343,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -5350,7 +5380,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2861</t>
+          <t>2861</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -5387,7 +5417,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2864</t>
+          <t>2864</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5424,7 +5454,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2986</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -5461,7 +5491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2987</t>
+          <t>2987</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5498,7 +5528,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2989</t>
+          <t>2989</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5535,7 +5565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3024</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5572,7 +5602,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3031</t>
+          <t>3031</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5609,7 +5639,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3080</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5646,7 +5676,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3082</t>
+          <t>3082</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5683,7 +5713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3097</t>
+          <t>3097</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5720,7 +5750,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3100</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5757,7 +5787,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3102</t>
+          <t>3102</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5794,7 +5824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3104</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5831,7 +5861,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3231</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5868,7 +5898,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5905,7 +5935,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3247</t>
+          <t>3247</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5942,7 +5972,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3253</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5979,7 +6009,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3261</t>
+          <t>3261</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -6016,7 +6046,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3270</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -6053,7 +6083,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3277</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -6090,7 +6120,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3287</t>
+          <t>3287</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -6127,7 +6157,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3288</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6164,7 +6194,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3289</t>
+          <t>3289</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6201,7 +6231,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3290</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6238,7 +6268,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3296</t>
+          <t>3296</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6275,7 +6305,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3297</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6312,7 +6342,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3298</t>
+          <t>3298</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6349,7 +6379,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3334</t>
+          <t>3334</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6386,7 +6416,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3336</t>
+          <t>3336</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6423,7 +6453,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3338</t>
+          <t>3338</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6460,7 +6490,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6497,7 +6527,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6534,7 +6564,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6571,7 +6601,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3359</t>
+          <t>3359</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6608,7 +6638,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6645,7 +6675,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6682,7 +6712,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6719,7 +6749,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6756,7 +6786,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6793,7 +6823,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6830,7 +6860,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3450</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6867,7 +6897,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3453</t>
+          <t>3453</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6904,7 +6934,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3454</t>
+          <t>3454</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6941,7 +6971,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3471</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6978,7 +7008,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3472</t>
+          <t>3472</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -7015,7 +7045,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3473</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -7052,7 +7082,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3475</t>
+          <t>3475</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -7089,7 +7119,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3478</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -7126,7 +7156,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3480</t>
+          <t>3480</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -7163,7 +7193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3481</t>
+          <t>3481</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -7200,7 +7230,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3506</t>
+          <t>3506</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -7237,7 +7267,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7274,7 +7304,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3520</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7311,7 +7341,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7348,7 +7378,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7385,7 +7415,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3527</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7422,7 +7452,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3531</t>
+          <t>3531</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -7459,7 +7489,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3532</t>
+          <t>3532</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7496,7 +7526,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3533</t>
+          <t>3533</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7533,7 +7563,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3535</t>
+          <t>3535</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7570,7 +7600,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3655</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7607,7 +7637,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3657</t>
+          <t>3657</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7644,7 +7674,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3661</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7681,7 +7711,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3752</t>
+          <t>3752</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7718,7 +7748,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7755,7 +7785,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3788</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7792,7 +7822,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4144</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7829,7 +7859,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4150</t>
+          <t>4150</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7866,7 +7896,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4159</t>
+          <t>4159</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7903,7 +7933,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4161</t>
+          <t>4161</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7940,7 +7970,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7977,7 +8007,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -8014,7 +8044,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -8051,7 +8081,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4219</t>
+          <t>4219</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -8088,7 +8118,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4220</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -8125,7 +8155,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4221</t>
+          <t>4221</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -8162,7 +8192,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4228</t>
+          <t>4228</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -8199,7 +8229,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4229</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -8236,7 +8266,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4230</t>
+          <t>4230</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -8273,7 +8303,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8310,7 +8340,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4286</t>
+          <t>4286</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8347,7 +8377,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8384,7 +8414,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4293</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8421,7 +8451,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4296</t>
+          <t>4296</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8458,7 +8488,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -8495,7 +8525,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -8532,7 +8562,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4338</t>
+          <t>4338</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8569,7 +8599,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8606,7 +8636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4360</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8643,7 +8673,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4362</t>
+          <t>4362</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8680,7 +8710,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4533</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -8717,7 +8747,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4535</t>
+          <t>4535</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -8754,7 +8784,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4536</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -8782,6 +8812,463 @@
           <t>0/39</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.81%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.79%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8933,9 +8934,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -8981,9 +8979,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9059,9 +9054,6 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9074,10 +9066,6 @@
           <t>4293</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9090,10 +9078,6 @@
           <t>4296</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9139,9 +9123,6 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -9154,55 +9135,337 @@
           <t>4338</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4359</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4360</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4535</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4220</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4221</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4228</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4285</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4286</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4293</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4296</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
+          <t>4338</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -9212,15 +9475,12 @@
           <t>4360</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9230,9 +9490,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9242,9 +9499,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9252,11 +9506,16 @@
           <t>4535</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9264,11 +9523,12 @@
           <t>4536</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
+++ b/bin/sheets/main_db/teams/WIN/PlayerPerformance_3611.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>20/08/2008</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -704,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>28/07/2009</t>
@@ -1063,6 +1064,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/03/2010</t>
@@ -1162,6 +1164,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>12/03/2010</t>
@@ -1209,6 +1212,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>31/01/2011</t>
@@ -1360,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>28/02/2011</t>
@@ -1407,6 +1412,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -1610,6 +1616,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/04/2011</t>
@@ -1761,6 +1768,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>02/05/2011</t>
@@ -1912,6 +1920,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>16/06/2011</t>
@@ -1959,6 +1968,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>13/10/2011</t>
@@ -2006,6 +2016,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>15/10/2011</t>
@@ -2209,6 +2220,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>05/12/2011</t>
@@ -2412,6 +2424,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>18/03/2012</t>
@@ -2511,6 +2524,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>23/03/2012</t>
@@ -2974,6 +2988,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>22/02/2013</t>
@@ -3021,6 +3036,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>24/02/2013</t>
@@ -3068,6 +3084,7 @@
           <t>51</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>26/02/2013</t>
@@ -3219,6 +3236,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>28/06/2013</t>
@@ -3630,6 +3648,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>20/08/2014</t>
@@ -3677,6 +3696,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>22/08/2014</t>
@@ -3724,6 +3744,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -3771,6 +3792,7 @@
           <t>65</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>16/02/2015</t>
@@ -3870,6 +3892,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -3917,6 +3940,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -4016,6 +4040,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>19/03/2018</t>
@@ -4479,6 +4504,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>11/12/2018</t>
@@ -4578,6 +4604,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>05/05/2019</t>
@@ -4677,6 +4704,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>11/05/2019</t>
@@ -4776,6 +4804,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>17/05/2019</t>
@@ -4823,6 +4852,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>10/06/2019</t>
@@ -4835,7 +4865,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4974,6 +5004,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>04/07/2019</t>
@@ -5021,6 +5052,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>08/08/2019</t>
@@ -5120,6 +5152,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>14/08/2019</t>
@@ -8817,720 +8850,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.56%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.52%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.38%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.21%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.79%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4359</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4219</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4220</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4221</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4228</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4229</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4230</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4285</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4286</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4291</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4293</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4296</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4333</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4338</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4360</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4362</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4535</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4536</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>